--- a/controller/src/main/resources/jxls_templates/tbhtshouzhifenxibiao.xlsx
+++ b/controller/src/main/resources/jxls_templates/tbhtshouzhifenxibiao.xlsx
@@ -433,10 +433,10 @@
     <t>${o.actual02*1}</t>
   </si>
   <si>
-    <t>${0.actual03*1}</t>
-  </si>
-  <si>
     <t>${o.contractnumbercon}</t>
+  </si>
+  <si>
+    <t>${o.actual03*1}</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,12 +663,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1009,8 +1003,8 @@
   </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1031,30 +1025,30 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:21" ht="15.75">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
@@ -1128,10 +1122,10 @@
       <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" customHeight="1">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -1189,8 +1183,8 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="20" t="s">
         <v>8</v>
       </c>
@@ -1251,8 +1245,8 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
@@ -1298,8 +1292,8 @@
       <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="20" t="s">
         <v>10</v>
       </c>
@@ -1345,8 +1339,8 @@
       <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="20" t="s">
         <v>11</v>
       </c>
@@ -1404,8 +1398,8 @@
       <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="20" t="s">
         <v>28</v>
       </c>
@@ -1433,18 +1427,18 @@
       <c r="T10" s="12"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -1494,14 +1488,14 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="14.25" customHeight="1">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1540,7 +1534,7 @@
         <v>81</v>
       </c>
       <c r="S14" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T14" s="16">
         <f>SUM(H14:S14)</f>
@@ -1548,8 +1542,8 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="20" t="s">
         <v>15</v>
       </c>
